--- a/strong-scaling/strong-scaling.xlsx
+++ b/strong-scaling/strong-scaling.xlsx
@@ -5,14 +5,14 @@
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Astrianna/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Astrianna/Library/Caches/Cleanup At Startup/Transmit/9BA15E7C-D804-4C35-BC68-3D2BC38B4927/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Weak Scaling" sheetId="1" r:id="rId1"/>
+    <sheet name="Strong Scaling" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="150000" iterate="1" concurrentCalc="0"/>
   <extLst>
@@ -663,10 +663,10 @@
   <dimension ref="A1:I104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B90" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J13" sqref="J13"/>
+      <selection pane="bottomRight" activeCell="G107" sqref="G107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
